--- a/Dzaqtlas Adventures Chapters/Assets/Tables.xlsx
+++ b/Dzaqtlas Adventures Chapters/Assets/Tables.xlsx
@@ -8,12 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffkazmierski/Documents/GitHub/Zdetl/Dzaqtlas Adventures Chapters/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60362D0-7CA5-6D41-A32D-C04449C1B6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AF19BD-72AF-BC46-9380-339D87F068FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15880" xr2:uid="{68ED0E21-30F5-114A-A1AB-58F817155603}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15880" activeTab="3" xr2:uid="{68ED0E21-30F5-114A-A1AB-58F817155603}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zhodani Life Events" sheetId="1" r:id="rId1"/>
+    <sheet name="Agent Life Events" sheetId="2" r:id="rId2"/>
+    <sheet name="Army Tables" sheetId="3" r:id="rId3"/>
+    <sheet name="Aviator Tables" sheetId="13" r:id="rId4"/>
+    <sheet name="Citizen Life Events" sheetId="11" r:id="rId5"/>
+    <sheet name="Drifter Life Events" sheetId="4" r:id="rId6"/>
+    <sheet name="Entertainer Life Events" sheetId="5" r:id="rId7"/>
+    <sheet name="Government Life Events" sheetId="6" r:id="rId8"/>
+    <sheet name="Merchant Life Events" sheetId="7" r:id="rId9"/>
+    <sheet name="Navy Life Events" sheetId="8" r:id="rId10"/>
+    <sheet name="Nobility Life Events" sheetId="12" r:id="rId11"/>
+    <sheet name="Rogue Life Events" sheetId="10" r:id="rId12"/>
+    <sheet name="Scholar Life Events" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="77">
   <si>
     <t>Life Events</t>
   </si>
@@ -56,28 +68,6 @@
 6 - Ancient Technology: You find something very old, possibly dating back to Zhodani prehistory.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sickness or Injury</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: You contract a serious illness or are injured. Roll on the Injury table.</t>
-    </r>
-  </si>
-  <si>
     <t>All Timelines</t>
   </si>
   <si>
@@ -215,6 +205,618 @@
 1-2 - Your partner dies or is killed.
 3-4 - You leave your partner. Roll 1D: 1-3 - it ends badly (gain a Rival). 4-6 - it ends amiably.
 5-6 - Your partner leaves you. Roll 1D: 1-3 - it ends badly (gain a Rival). 4-6 - it ends amiably.</t>
+    </r>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>Mishap</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Life Event: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roll on the Zhodani Life Events table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Disaster! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Roll on the Mishaps table but continue in this career.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specialist Training: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn one level of Drive, Flyer, or Seafarer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Natural Disaster: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Roll 1D. On a 1, roll on the Injury table. Otherwise, gain +1 Survival or Medic.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mission: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You complete an important mission. Gain +1 DM to any one Benefit roll.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Contacts: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You expand your network of Contacts. Gaiin 1D3 Contacts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advanced Training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Roll Edu 8+ to gain +1 to any skill already known.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Undercover: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You go undercover to investigate an enemy or threat. Roll Investigate 8+. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desk Job: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gain one level of Admin, Computers, or Comms.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Noticed by Superiors: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gain an Ally and +2 to your next Advancement roll.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Conspiracy: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You uncover a major conspiracy against the state. You are immediately promoted.</t>
+    </r>
+  </si>
+  <si>
+    <t>End of Days, Rising Empire</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sickness or Injury</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: You contract a serious illness or are injured. Roll 1D; on a 1, you are afflicted by the Dzaqtlas! Make an immediate Survival roll with DM -2. Otherwise, roll on the Injury table.</t>
+    </r>
+  </si>
+  <si>
+    <t>Severely injured in action. Roll twice on the Injury table and take the lower result.</t>
+  </si>
+  <si>
+    <t>An investigation goes badly wrong, ruining your career. Roll Advocate 8+. If successful, you may keep this term's Benefit roll. If you fail, you lose a Benefit roll.</t>
+  </si>
+  <si>
+    <t>A mission goes wrong and you are held responsible. You may accept your fate and leave with an extra Benefit roll as compensation. If you contest it, roll Advocate 8+. If successful, you may stay in this career. Otherwise you are forced out.</t>
+  </si>
+  <si>
+    <t>Due to psychological stress, you decide to leave this career.</t>
+  </si>
+  <si>
+    <t>You are injured in an act of sabotage. Roll once on the Injury table but gain a Contact in the Scholar/Medical field.</t>
+  </si>
+  <si>
+    <t>You are injured in action. Roll once on the Injury table.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Combat Duty: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You are assigned to a region torn by war or insurrection. Gain +1 to Stealth, Persuade, or Recon.</t>
+    </r>
+  </si>
+  <si>
+    <t>End of Days, Wasteland, Rising Empire</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">War: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You are embroiled in brutal ground combat. Roll Gun Combat or Stealth 8+ to avoid injury; if successful, gain +1 to Gun Combat (any), Leadership, or Tactics (military).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Surrounded: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outnumbered by the enemy, you hold out until relief arrives. Gain +2 to your next Advancement roll.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Peacekeeping: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You are assigned to peacekeeping duty. Gain +1 to Admin, Investigate or Recon.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Commando Training: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gain +1 to Heavy Weapons, Recon or Survival and +2 to your next Advancement roll.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Heroism: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Your next Advancement roll is automatically successful.</t>
+    </r>
+  </si>
+  <si>
+    <t>You are involved in a disastrous campaign from which you barely escape. Behind enemy lines, you make 1D3 contacts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are sent to suppress an insurgency. You are released from duty due to stress or an injury. Gain +1 to Recon or Survival. If Soc-10+, also gain an Enemy in Government. </t>
+  </si>
+  <si>
+    <t>You discover your commanding officer is involved in criminal activity. You can either join in and gain an Ally before being kicked out, or turn him in and take your chances. If you do this, roll Advocate 8+ to avoid discharge.</t>
+  </si>
+  <si>
+    <t>You have problems working with a fellow officer or soldier. Gain a Rival.</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>Advancement</t>
+  </si>
+  <si>
+    <t>Infantry</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Cavalry</t>
+  </si>
+  <si>
+    <t>Str 6+</t>
+  </si>
+  <si>
+    <t>Edu 6+</t>
+  </si>
+  <si>
+    <t>End 5+</t>
+  </si>
+  <si>
+    <t>Edu 7+</t>
+  </si>
+  <si>
+    <t>Dex 7+</t>
+  </si>
+  <si>
+    <t>Int 5+</t>
+  </si>
+  <si>
+    <t>Mustering-Out Benefits</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>+1 Edu</t>
+  </si>
+  <si>
+    <t>+1 End</t>
+  </si>
+  <si>
+    <t>+1 Int</t>
+  </si>
+  <si>
+    <t>Medal</t>
+  </si>
+  <si>
+    <t>+1 Soc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Combat Duty: (Military) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You are assigned to a region torn by war or insurrection. Gain +1 to Sensors, Navigation, or Recon. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Corporate) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Your company is contracted to fly supplies into a combat zone. Gain +1 to Comms, Navigation, or Recon. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Spacer) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You get specialist training in high risk operations. Gain +1 to Comms, Navigation, or Sensors.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Evacuation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You are sent to a region where civilians need to be evacuated quickly. Gain +1 to Admin, Investigate or Recon.</t>
+    </r>
+  </si>
+  <si>
+    <t>You discover your commanding officer or a senior executive is involved in criminal activity. You can either join in and gain an Ally before being kicked out, or turn him in and take your chances. If you do this, roll Advocate 8+ to avoid discharge.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Natural Disaster: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Your unit or company is sent to assist in an area affected by a natural disaster. Roll 1D. On a 1, roll on the Injury table. Otherwise, gain +1 Survival or Medic.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Military) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You are shot down during a disastrous military action. Behind enemy lines, you make 1D3 contacts. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Corporate) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Your flight path takes you through a conflict zone, forcing you to make an emergency landing. Lose one benefit roll for this term but gain 1D3 contacts. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Spacer) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Your capsule returns to Zhdant in hostile territory. Roll on the Injury table but gain +1 to Stealth.</t>
+    </r>
+  </si>
+  <si>
+    <t>You are blamed for an accident that causes the deaths of several crew members. If you were responsible, gain one free roll on the Skills table before being discharged. If not, gain the officer who blamed you as an Enemy but keep your benefit roll for this term.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Foil a Crime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You catch another crew member in the act of committing a crime (sabotage, mutiny, smuggling, or conspiracy). Gain an Enemy, but +2 to your next Advancement roll.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gain a Skill: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You learn something new from your time spent dealing with merchants and military quartermasters: Trade (any), Engineer (Electronic), Animals (any), or Social Science (any)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Connections: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You make a Contact outside your normal circles.</t>
     </r>
   </si>
 </sst>
@@ -264,13 +866,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -278,6 +877,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,118 +1221,2061 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F30F66-C22F-ED48-8033-402DE6EF0263}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="5" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="13" spans="1:2" ht="221" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7DDEE4-9EA1-924D-A9FB-26B48B4ABD66}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577BEB27-294E-AD4D-BE84-D994AEC57031}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94740D35-DA0A-384E-819F-C2241B567235}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85A8A1B-65C7-024C-9BE9-D269DE3F4D35}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FF617E-B240-EC49-A224-583F89EE7160}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB59521-647D-8B42-AE41-14953BF187FA}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>5000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>20000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>30000</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7231114-CFEC-014D-910B-67D467BB9B85}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129FA5D8-DEE4-A741-B49E-288412A0AA82}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119C641C-3468-B04D-B4CF-20907F9CA8BA}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF0771B-824A-A543-9945-94762B9CF323}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2384AD8-7B5F-9F4D-B9A4-8A17115238CE}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8B5108-43EE-B141-96CF-87AC8570C4FF}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Dzaqtlas Adventures Chapters/Assets/Tables.xlsx
+++ b/Dzaqtlas Adventures Chapters/Assets/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffkazmierski/Documents/GitHub/Zdetl/Dzaqtlas Adventures Chapters/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AF19BD-72AF-BC46-9380-339D87F068FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13305E67-A2EF-7649-8A9A-2A9C4032B298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15880" activeTab="3" xr2:uid="{68ED0E21-30F5-114A-A1AB-58F817155603}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15880" activeTab="4" xr2:uid="{68ED0E21-30F5-114A-A1AB-58F817155603}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhodani Life Events" sheetId="1" r:id="rId1"/>
@@ -2392,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7231114-CFEC-014D-910B-67D467BB9B85}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2564,6 +2564,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2571,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129FA5D8-DEE4-A741-B49E-288412A0AA82}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Dzaqtlas Adventures Chapters/Assets/Tables.xlsx
+++ b/Dzaqtlas Adventures Chapters/Assets/Tables.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffkazmierski/Documents/GitHub/Zdetl/Dzaqtlas Adventures Chapters/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13305E67-A2EF-7649-8A9A-2A9C4032B298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E390DC-7573-7149-A8E7-FF75FDB8F028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15880" activeTab="4" xr2:uid="{68ED0E21-30F5-114A-A1AB-58F817155603}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15880" xr2:uid="{68ED0E21-30F5-114A-A1AB-58F817155603}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zhodani Life Events" sheetId="1" r:id="rId1"/>
-    <sheet name="Agent Life Events" sheetId="2" r:id="rId2"/>
-    <sheet name="Army Tables" sheetId="3" r:id="rId3"/>
-    <sheet name="Aviator Tables" sheetId="13" r:id="rId4"/>
-    <sheet name="Citizen Life Events" sheetId="11" r:id="rId5"/>
-    <sheet name="Drifter Life Events" sheetId="4" r:id="rId6"/>
-    <sheet name="Entertainer Life Events" sheetId="5" r:id="rId7"/>
-    <sheet name="Government Life Events" sheetId="6" r:id="rId8"/>
-    <sheet name="Merchant Life Events" sheetId="7" r:id="rId9"/>
-    <sheet name="Navy Life Events" sheetId="8" r:id="rId10"/>
-    <sheet name="Nobility Life Events" sheetId="12" r:id="rId11"/>
-    <sheet name="Rogue Life Events" sheetId="10" r:id="rId12"/>
-    <sheet name="Scholar Life Events" sheetId="9" r:id="rId13"/>
+    <sheet name="Wasteland Timeline" sheetId="15" r:id="rId1"/>
+    <sheet name="End of Days Timeline" sheetId="14" r:id="rId2"/>
+    <sheet name="Zhodani Life Events" sheetId="1" r:id="rId3"/>
+    <sheet name="Agent Life Events" sheetId="2" r:id="rId4"/>
+    <sheet name="Army Tables" sheetId="3" r:id="rId5"/>
+    <sheet name="Aviator Tables" sheetId="13" r:id="rId6"/>
+    <sheet name="Citizen Life Events" sheetId="11" r:id="rId7"/>
+    <sheet name="Drifter Life Events" sheetId="4" r:id="rId8"/>
+    <sheet name="Entertainer Life Events" sheetId="5" r:id="rId9"/>
+    <sheet name="Government Life Events" sheetId="6" r:id="rId10"/>
+    <sheet name="Merchant Life Events" sheetId="7" r:id="rId11"/>
+    <sheet name="Navy Life Events" sheetId="8" r:id="rId12"/>
+    <sheet name="Nobility Life Events" sheetId="12" r:id="rId13"/>
+    <sheet name="Rogue Life Events" sheetId="10" r:id="rId14"/>
+    <sheet name="Scholar Life Events" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="93">
   <si>
     <t>Life Events</t>
   </si>
@@ -819,12 +821,60 @@
       <t>You make a Contact outside your normal circles.</t>
     </r>
   </si>
+  <si>
+    <t>Teqozdij</t>
+  </si>
+  <si>
+    <t>First space exploration</t>
+  </si>
+  <si>
+    <t>First expedition to Viepchakl</t>
+  </si>
+  <si>
+    <t>Second Dark Age begins.</t>
+  </si>
+  <si>
+    <t>Power grids begin to fail as the crews die and monitoring ceases.</t>
+  </si>
+  <si>
+    <t>Terrestrial agriculture begins to fail,  food distribution collapses.</t>
+  </si>
+  <si>
+    <t>Food riots as famine deepens. Survivors flee cities.</t>
+  </si>
+  <si>
+    <t>Campaign begins.</t>
+  </si>
+  <si>
+    <t>Viepchakl base established. First contact between Zhodani humans and Viepchaklts chirpers</t>
+  </si>
+  <si>
+    <t>First Qiknavrats-Viepchaklts meetings. Dzaqtlas begins.</t>
+  </si>
+  <si>
+    <t>Qiknavrats extinction. Dzaqtlas spreads to Zhdant.</t>
+  </si>
+  <si>
+    <t>Viepchaklts extinction. Medical infrastructure collapses. Dzaqtlas at its height. Plague rages unchecked, reaching 40% mortality.</t>
+  </si>
+  <si>
+    <t>Water and food production becomes a transmission vector. Famine exacerbates the effect of the plague, mortality 60%.</t>
+  </si>
+  <si>
+    <t>Survivalist communities form. Mobile gangs terrorize the wasteland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flight from cities. Power grids begin to fail. </t>
+  </si>
+  <si>
+    <t>Collapse of coastal cities. Without maintenance, buildings succumb to corrosion and weathering.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -844,6 +894,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -866,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -885,6 +948,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,6 +1283,1057 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA9F809-CDAE-CE48-BA4E-8D50ADD3A263}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="87.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-530</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-510</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-350</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2384AD8-7B5F-9F4D-B9A4-8A17115238CE}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8B5108-43EE-B141-96CF-87AC8570C4FF}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7DDEE4-9EA1-924D-A9FB-26B48B4ABD66}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577BEB27-294E-AD4D-BE84-D994AEC57031}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94740D35-DA0A-384E-819F-C2241B567235}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85A8A1B-65C7-024C-9BE9-D269DE3F4D35}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D482FA-44C3-CF47-8133-A755F6DEB82F}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="106.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>-549.1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>-539.29999999999995</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>-535.29999999999995</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>-535.20000000000005</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>-534.29999999999995</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>-533.20000000000005</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>-533.1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>-532.29999999999995</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>-532.20000000000005</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>-531.29999999999995</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>-531.20000000000005</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>-531.1</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F30F66-C22F-ED48-8033-402DE6EF0263}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -1341,579 +2457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7DDEE4-9EA1-924D-A9FB-26B48B4ABD66}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577BEB27-294E-AD4D-BE84-D994AEC57031}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94740D35-DA0A-384E-819F-C2241B567235}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85A8A1B-65C7-024C-9BE9-D269DE3F4D35}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FF617E-B240-EC49-A224-583F89EE7160}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2092,7 +2636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB59521-647D-8B42-AE41-14953BF187FA}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -2388,7 +2932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7231114-CFEC-014D-910B-67D467BB9B85}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2568,11 +3112,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129FA5D8-DEE4-A741-B49E-288412A0AA82}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2712,7 +3256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119C641C-3468-B04D-B4CF-20907F9CA8BA}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2855,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF0771B-824A-A543-9945-94762B9CF323}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2996,290 +3540,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2384AD8-7B5F-9F4D-B9A4-8A17115238CE}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8B5108-43EE-B141-96CF-87AC8570C4FF}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="77.33203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>